--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambh\OneDrive\Desktop\WaveScoreCardTry-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07709FD5-B773-49C7-8473-6E0A872F0D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5FE894-3F9C-4C3A-94E0-30BA08D4DABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2575,8 +2575,8 @@
   </sheetPr>
   <dimension ref="A1:AV999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N113" sqref="N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2696,13 +2696,13 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8</v>
-      </c>
-      <c r="L2" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
@@ -2730,13 +2730,13 @@
         <v>2</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3" s="4">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
@@ -2767,6 +2767,15 @@
       <c r="I4" s="4">
         <v>4</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -2794,6 +2803,15 @@
       <c r="I5" s="4">
         <v>3</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -2823,6 +2841,15 @@
       <c r="I6" s="4">
         <v>4</v>
       </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -2852,6 +2879,15 @@
       <c r="I7" s="4">
         <v>4</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2881,6 +2917,15 @@
       <c r="I8" s="4">
         <v>4</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -2909,6 +2954,15 @@
       </c>
       <c r="I9" s="4">
         <v>4</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
@@ -2939,6 +2993,15 @@
       <c r="I10" s="4">
         <v>4</v>
       </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -2968,6 +3031,15 @@
       <c r="I11" s="4">
         <v>4</v>
       </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -2997,6 +3069,15 @@
       <c r="I12" s="4">
         <v>4</v>
       </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -3026,6 +3107,15 @@
       <c r="I13" s="4">
         <v>4</v>
       </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -3055,6 +3145,15 @@
       <c r="I14" s="4">
         <v>4</v>
       </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -3084,6 +3183,15 @@
       <c r="I15" s="4">
         <v>4</v>
       </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -3113,8 +3221,17 @@
       <c r="I16" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>106</v>
       </c>
@@ -3142,8 +3259,17 @@
       <c r="I17" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>108</v>
       </c>
@@ -3171,8 +3297,17 @@
       <c r="I18" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>112</v>
       </c>
@@ -3200,8 +3335,17 @@
       <c r="I19" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>116</v>
       </c>
@@ -3229,8 +3373,17 @@
       <c r="I20" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>120</v>
       </c>
@@ -3254,8 +3407,17 @@
       <c r="I21" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>122</v>
       </c>
@@ -3283,8 +3445,17 @@
       <c r="I22" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>126</v>
       </c>
@@ -3312,8 +3483,17 @@
       <c r="I23" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>130</v>
       </c>
@@ -3341,8 +3521,17 @@
       <c r="I24" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>134</v>
       </c>
@@ -3370,8 +3559,17 @@
       <c r="I25" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>138</v>
       </c>
@@ -3399,8 +3597,17 @@
       <c r="I26" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>142</v>
       </c>
@@ -3426,8 +3633,17 @@
       <c r="I27" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>145</v>
       </c>
@@ -3455,8 +3671,17 @@
       <c r="I28" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>149</v>
       </c>
@@ -3484,8 +3709,17 @@
       <c r="I29" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>153</v>
       </c>
@@ -3513,8 +3747,17 @@
       <c r="I30" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>157</v>
       </c>
@@ -3540,8 +3783,17 @@
       <c r="I31" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>160</v>
       </c>
@@ -3567,6 +3819,15 @@
       <c r="I32" s="4">
         <v>3</v>
       </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
@@ -3596,6 +3857,15 @@
       <c r="I33" s="4">
         <v>4</v>
       </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -3625,6 +3895,15 @@
       <c r="I34" s="4">
         <v>4</v>
       </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
@@ -3654,6 +3933,15 @@
       <c r="I35" s="4">
         <v>4</v>
       </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
@@ -3683,6 +3971,15 @@
       <c r="I36" s="4">
         <v>4</v>
       </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -3712,6 +4009,15 @@
       <c r="I37" s="4">
         <v>4</v>
       </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
@@ -3741,6 +4047,15 @@
       <c r="I38" s="4">
         <v>4</v>
       </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
@@ -3770,6 +4085,15 @@
       <c r="I39" s="4">
         <v>4</v>
       </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -3799,6 +4123,15 @@
       <c r="I40" s="4">
         <v>4</v>
       </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -3828,9 +4161,15 @@
       <c r="I41" s="4">
         <v>4</v>
       </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -3893,6 +4232,15 @@
       <c r="I42" s="4">
         <v>3</v>
       </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
@@ -3920,6 +4268,15 @@
       <c r="I43" s="4">
         <v>3</v>
       </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
@@ -3949,6 +4306,15 @@
       <c r="I44" s="4">
         <v>4</v>
       </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
@@ -3978,6 +4344,15 @@
       <c r="I45" s="4">
         <v>4</v>
       </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
@@ -4007,6 +4382,15 @@
       <c r="I46" s="4">
         <v>4</v>
       </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
@@ -4034,6 +4418,15 @@
       <c r="I47" s="4">
         <v>3</v>
       </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
@@ -4063,8 +4456,17 @@
       <c r="I48" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>20</v>
       </c>
@@ -4090,8 +4492,17 @@
       <c r="I49" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>225</v>
       </c>
@@ -4119,8 +4530,17 @@
       <c r="I50" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>228</v>
       </c>
@@ -4148,8 +4568,17 @@
       <c r="I51" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>232</v>
       </c>
@@ -4177,8 +4606,17 @@
       <c r="I52" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>14</v>
       </c>
@@ -4206,8 +4644,17 @@
       <c r="I53" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>239</v>
       </c>
@@ -4233,8 +4680,17 @@
       <c r="I54" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>242</v>
       </c>
@@ -4262,8 +4718,17 @@
       <c r="I55" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>246</v>
       </c>
@@ -4291,8 +4756,17 @@
       <c r="I56" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>25</v>
       </c>
@@ -4320,8 +4794,17 @@
       <c r="I57" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>253</v>
       </c>
@@ -4349,8 +4832,17 @@
       <c r="I58" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>257</v>
       </c>
@@ -4378,8 +4870,17 @@
       <c r="I59" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>36</v>
       </c>
@@ -4407,8 +4908,17 @@
       <c r="I60" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>35</v>
       </c>
@@ -4436,8 +4946,17 @@
       <c r="I61" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>267</v>
       </c>
@@ -4463,8 +4982,17 @@
       <c r="I62" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>48</v>
       </c>
@@ -4492,8 +5020,17 @@
       <c r="I63" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>30</v>
       </c>
@@ -4520,6 +5057,15 @@
       </c>
       <c r="I64" s="4">
         <v>4</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
@@ -4550,6 +5096,15 @@
       <c r="I65" s="4">
         <v>4</v>
       </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -4579,6 +5134,15 @@
       <c r="I66" s="4">
         <v>4</v>
       </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
@@ -4608,9 +5172,15 @@
       <c r="I67" s="4">
         <v>4</v>
       </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
@@ -4675,6 +5245,15 @@
       <c r="I68" s="4">
         <v>4</v>
       </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
@@ -4704,6 +5283,15 @@
       <c r="I69" s="4">
         <v>4</v>
       </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
@@ -4731,6 +5319,15 @@
       <c r="I70" s="4">
         <v>3</v>
       </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
@@ -4758,6 +5355,15 @@
       <c r="I71" s="4">
         <v>3</v>
       </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -4787,6 +5393,15 @@
       <c r="I72" s="4">
         <v>4</v>
       </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -4816,6 +5431,15 @@
       <c r="I73" s="4">
         <v>4</v>
       </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
@@ -4845,9 +5469,15 @@
       <c r="I74" s="4">
         <v>4</v>
       </c>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
@@ -4912,6 +5542,15 @@
       <c r="I75" s="4">
         <v>4</v>
       </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
@@ -4941,6 +5580,15 @@
       <c r="I76" s="4">
         <v>4</v>
       </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
@@ -4970,6 +5618,15 @@
       <c r="I77" s="4">
         <v>4</v>
       </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
@@ -4999,6 +5656,15 @@
       <c r="I78" s="4">
         <v>4</v>
       </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
@@ -5028,6 +5694,15 @@
       <c r="I79" s="4">
         <v>4</v>
       </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
@@ -5057,6 +5732,15 @@
       <c r="I80" s="4">
         <v>4</v>
       </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
@@ -5086,6 +5770,15 @@
       <c r="I81" s="4">
         <v>4</v>
       </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
@@ -5115,6 +5808,15 @@
       <c r="I82" s="4">
         <v>4</v>
       </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
@@ -5144,6 +5846,15 @@
       <c r="I83" s="4">
         <v>4</v>
       </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
@@ -5173,6 +5884,15 @@
       <c r="I84" s="4">
         <v>4</v>
       </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
@@ -5202,6 +5922,15 @@
       <c r="I85" s="4">
         <v>4</v>
       </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
@@ -5231,9 +5960,15 @@
       <c r="I86" s="4">
         <v>4</v>
       </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
@@ -5298,6 +6033,15 @@
       <c r="I87" s="4">
         <v>4</v>
       </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
@@ -5327,6 +6071,15 @@
       <c r="I88" s="4">
         <v>4</v>
       </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -5354,9 +6107,15 @@
       <c r="I89" s="4">
         <v>3</v>
       </c>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
@@ -5421,9 +6180,15 @@
       <c r="I90" s="4">
         <v>4</v>
       </c>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
@@ -5488,9 +6253,15 @@
       <c r="I91" s="4">
         <v>4</v>
       </c>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
@@ -5555,9 +6326,15 @@
       <c r="I92" s="4">
         <v>4</v>
       </c>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
@@ -5622,9 +6399,15 @@
       <c r="I93" s="4">
         <v>4</v>
       </c>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
@@ -5689,9 +6472,15 @@
       <c r="I94" s="4">
         <v>4</v>
       </c>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
@@ -5756,9 +6545,15 @@
       <c r="I95" s="4">
         <v>4</v>
       </c>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
@@ -5823,9 +6618,15 @@
       <c r="I96" s="4">
         <v>4</v>
       </c>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
@@ -5890,9 +6691,15 @@
       <c r="I97" s="4">
         <v>4</v>
       </c>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
@@ -5953,9 +6760,15 @@
       <c r="I98" s="4">
         <v>2</v>
       </c>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
@@ -6016,9 +6829,15 @@
       <c r="I99" s="4">
         <v>2</v>
       </c>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
@@ -6083,9 +6902,15 @@
       <c r="I100" s="4">
         <v>4</v>
       </c>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
@@ -6150,9 +6975,15 @@
       <c r="I101" s="4">
         <v>4</v>
       </c>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
@@ -6217,9 +7048,15 @@
       <c r="I102" s="4">
         <v>4</v>
       </c>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
@@ -6284,9 +7121,15 @@
       <c r="I103" s="4">
         <v>4</v>
       </c>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
@@ -6351,9 +7194,15 @@
       <c r="I104" s="8">
         <v>4</v>
       </c>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="5"/>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
       <c r="N104" s="6"/>
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
@@ -6418,9 +7267,15 @@
       <c r="I105" s="8">
         <v>4</v>
       </c>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="5"/>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
@@ -6485,9 +7340,15 @@
       <c r="I106" s="4">
         <v>4</v>
       </c>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
